--- a/biology/Médecine/Anisocaryose/Anisocaryose.xlsx
+++ b/biology/Médecine/Anisocaryose/Anisocaryose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anisocaryose (en anglais : anisonucleosis) est un état pathologique des noyaux au sein d'une tumeur.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot est formé du grec ancien αν / an, privatif, ισος / isos, égal et κάρυον / caruon, noyau.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet état décrit l'inégalité de taille des noyaux au sein d'une population cellulaire homogène, observée sur une préparation histologique ou cytologique donnée.
 En médecine, l'anisocaryose est un critère diagnostic de tumeur.
